--- a/biology/Zoologie/Geosesarma/Geosesarma.xlsx
+++ b/biology/Zoologie/Geosesarma/Geosesarma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geosesarma est un genre de crabes de la famille des Sesarmidae. Il regroupe des espèces de petits crabes d'eau douce ou terrestres. En 2013, on dénombrait 50 espèces connues. Il est également connue sous le nom de crabe vampire.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent de l'Asie du Sud-Est aux îles du Pacifique occidentale. Ils sont très craintifs et très difficiles à observer en journée.
 Ces espèces peuvent être élevées en captivité dans des paludariums avec un espace semi-aquatique et semi-terrestre dans une température entre 20 et 26 °C.
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (25 avril 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (25 avril 2013) :
 Geosesarma aedituens (Naruse &amp; Jaafar, 2009)
 Geosesarma albomita (Yeo &amp; Ng, 1999)
 Geosesarma amphinome (De Man, 1899)
@@ -595,9 +611,7 @@
 Geosesarma teschi (Ng, 1986)
 Geosesarma thelxinoe (De Man, 1908)
 Geosesarma tiomanicum (Ng, 1986)
-Geosesarma vicentense (Rathbun, 1914)
-Autres
-Geosesarma dennerle (K. L. Ng1, D. Schubart &amp; C. Lukhaup, 2015)[2]</t>
+Geosesarma vicentense (Rathbun, 1914)</t>
         </is>
       </c>
     </row>
@@ -622,10 +636,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Geosesarma dennerle (K. L. Ng1, D. Schubart &amp; C. Lukhaup, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geosesarma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geosesarma</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De Man, 1892 : Decapoden des indischen Archipels. Zoologische Ergebnisse einer Reise in Niederländisch Ost-Indien, vol. 2, p. 265–527(texte intégral).</t>
         </is>
